--- a/src/excelExportAndFileIO/AutomationInput.xlsx
+++ b/src/excelExportAndFileIO/AutomationInput.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>User</t>
   </si>
@@ -25,25 +24,16 @@
     <t>Input</t>
   </si>
   <si>
-    <t>ismail</t>
-  </si>
-  <si>
-    <t>aqib</t>
-  </si>
-  <si>
-    <t>ismail@gmail.com</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Dev</t>
-  </si>
-  <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>nextory.auto@gmail.com</t>
+  </si>
+  <si>
+    <t>a1aaaaaa</t>
   </si>
 </sst>
 </file>
@@ -98,8 +88,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,53 +392,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
